--- a/recuento.xlsx
+++ b/recuento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\Tareas Varios\CTD\bimestre5\backend\Examen\KOHEN-NATALIA_CAICEDO-CLAUDIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A912E39-DF88-4A69-8262-1A96166B2D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A689F-6D41-4C7F-8014-D849AFA9DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C4BC463-CAA7-431A-8A47-2C47A2575FA9}"/>
+    <workbookView xWindow="33555" yWindow="-9285" windowWidth="15675" windowHeight="13935" activeTab="1" xr2:uid="{0C4BC463-CAA7-431A-8A47-2C47A2575FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>nombr</t>
   </si>
@@ -75,21 +75,12 @@
     <t>Controller</t>
   </si>
   <si>
-    <t>Crear</t>
-  </si>
-  <si>
     <t>TurnoController</t>
   </si>
   <si>
     <t>OdontologoController</t>
   </si>
   <si>
-    <t>Agregar Excepciones</t>
-  </si>
-  <si>
-    <t>Agregar Excepciones Bad_Request</t>
-  </si>
-  <si>
     <t>dto</t>
   </si>
   <si>
@@ -160,12 +151,6 @@
   </si>
   <si>
     <t>exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK (*) </t>
-  </si>
-  <si>
-    <t>Implementar en Odontologo</t>
   </si>
   <si>
     <t>repository</t>
@@ -258,10 +243,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,14 +568,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -607,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -624,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>9</v>
       </c>
@@ -636,287 +621,284 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A4DF9A-5EA1-4DC5-93C9-0FA867A9B7D0}">
-  <dimension ref="A3:G29"/>
+  <dimension ref="A3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="1" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/recuento.xlsx
+++ b/recuento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\Tareas Varios\CTD\bimestre5\backend\Examen\KOHEN-NATALIA_CAICEDO-CLAUDIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A689F-6D41-4C7F-8014-D849AFA9DDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D38CE0-6DD1-4977-8087-6AFF8B0282CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33555" yWindow="-9285" windowWidth="15675" windowHeight="13935" activeTab="1" xr2:uid="{0C4BC463-CAA7-431A-8A47-2C47A2575FA9}"/>
+    <workbookView xWindow="38160" yWindow="-10005" windowWidth="17280" windowHeight="15585" activeTab="1" xr2:uid="{0C4BC463-CAA7-431A-8A47-2C47A2575FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>nombr</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Turno</t>
   </si>
   <si>
-    <t>FALTA</t>
-  </si>
-  <si>
     <t>Domicilio</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>Faltan todos</t>
   </si>
   <si>
     <t>FRONT</t>
@@ -624,7 +618,7 @@
   <dimension ref="A3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F3" sqref="F3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +656,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -673,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -728,17 +722,17 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -748,7 +742,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -758,7 +752,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -767,7 +761,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -798,10 +792,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
@@ -810,7 +804,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
@@ -819,7 +813,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -836,7 +830,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
@@ -844,7 +838,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
@@ -852,10 +846,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>21</v>
@@ -864,7 +858,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>21</v>
@@ -872,33 +866,30 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
